--- a/template import users.xlsx
+++ b/template import users.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentpaoletti/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurentpaoletti/Documents/DEV/DJ/trackdechets-preparation-inspection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9F9A3B-B045-F741-AC75-CAEE5AD8D0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1261387-9623-C34B-B9CD-DB3CB92FC99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>email</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>user_category :</t>
+  </si>
+  <si>
+    <t>à supprimer</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -457,30 +460,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -555,32 +534,19 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -918,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEC4AC-5BC2-1445-810A-E75102A8535C}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -932,85 +898,46 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
